--- a/output/2019/sector_totals_2019.xlsx
+++ b/output/2019/sector_totals_2019.xlsx
@@ -509,7 +509,7 @@
         <v>394.9544215286256</v>
       </c>
       <c r="F3" t="n">
-        <v>0</v>
+        <v>79.37230812425607</v>
       </c>
       <c r="G3" t="n">
         <v>4.449361053106772</v>
@@ -834,7 +834,7 @@
         <v>7910.739008973328</v>
       </c>
       <c r="F16" t="n">
-        <v>4414.235496376621</v>
+        <v>4493.607804500877</v>
       </c>
       <c r="G16" t="n">
         <v>49.32103049837363</v>

--- a/output/2019/sector_totals_2019.xlsx
+++ b/output/2019/sector_totals_2019.xlsx
@@ -647,7 +647,7 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>0</v>
+        <v>94.41249001862033</v>
       </c>
       <c r="C9" t="n">
         <v>94.41249001862033</v>
@@ -672,7 +672,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0</v>
+        <v>46.94126537280198</v>
       </c>
       <c r="C10" t="n">
         <v>46.94126537280198</v>
@@ -697,7 +697,7 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0</v>
+        <v>329.2200721866216</v>
       </c>
       <c r="C11" t="n">
         <v>329.2200721866216</v>
@@ -822,7 +822,7 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>6243.698923563927</v>
+        <v>6714.272751141971</v>
       </c>
       <c r="C16" t="n">
         <v>534.0051445905361</v>
